--- a/Imag/gumbel_hougaard/resultados.xlsx
+++ b/Imag/gumbel_hougaard/resultados.xlsx
@@ -490,31 +490,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05073616607144776</v>
+        <v>0.1599191691354807</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.04960130217065981</v>
+        <v>0.8425704734821873</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2544248340805207</v>
+        <v>0.3721762221083804</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(4.554586911910803,)</t>
+          <t>(-0.14582922886341526,)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(4.554586911910803, -0.04960130217065981, 0.25442483408052075)</t>
+          <t>(-0.14582922886341526, 0.8425704734821873, 0.3721762221083804)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7733BC820&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114FA290&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -533,27 +533,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05123518732417279</v>
+        <v>0.1804599200787505</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.4235304599071088</v>
+        <v>0.08468835159475883</v>
       </c>
       <c r="D3" t="n">
-        <v>1.442653671088852</v>
+        <v>0.8997261695945882</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(0.34774665509505526,)</t>
+          <t>(0.5270086035521369,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(0.34774665509505526, -0.4235304599071088, 1.442653671088852)</t>
+          <t>(0.5270086035521369, 0.08468835159475883, 0.8997261695945882)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7733BCBB0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114F8EB0&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -568,31 +568,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05158193598811132</v>
+        <v>0.2262977062897753</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.04291923748249653</v>
+        <v>0.2859893923070637</v>
       </c>
       <c r="D4" t="n">
-        <v>762800.9422215191</v>
+        <v>0.3822932531403936</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(4.472530885568159, 2959649.959599797)</t>
+          <t>(2.1773745499618973,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(4.472530885568159, 2959649.959599797, -0.04291923748249653, 762800.9422215191)</t>
+          <t>(2.1773745499618973, 0.2859893923070637, 0.38229325314039364)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7733BE080&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114FA6B0&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -607,31 +607,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05429252246127042</v>
+        <v>0.2308733992431038</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8601733321721132</v>
+        <v>0.2889888370146915</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4274423481393236</v>
+        <v>7275748.288956531</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(-0.0066489298574915045,)</t>
+          <t>(2.133196203648171, 18668907.494049393)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(-0.0066489298574915045, 0.8601733321721132, 0.4274423481393236)</t>
+          <t>(2.133196203648171, 18668907.494049393, 0.2889888370146915, 7275748.288956531)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7733BD390&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114F9090&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -646,31 +646,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>dweibull</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0746132484284565</v>
+        <v>0.2425449068133839</v>
       </c>
       <c r="C6" t="n">
-        <v>1.031887432015517</v>
+        <v>0.99266102117218</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4390897599729398</v>
+        <v>0.3675544045586184</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(1.1733426258873951,)</t>
+          <t>(2.495010186607715,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(1.1733426258873951, 1.0318874320155174, 0.43908975997293975)</t>
+          <t>(2.495010186607715, 0.99266102117218, 0.36755440455861843)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F75244B010&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114F8CA0&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -685,31 +685,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>dweibull</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1083393207387048</v>
+        <v>0.2735035254604248</v>
       </c>
       <c r="C7" t="n">
-        <v>1.054341806066598</v>
+        <v>1.01195162686054</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4422917412832065</v>
+        <v>0.401831593743268</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(5.6698457757091365,)</t>
+          <t>(0.9044149865270397,)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(5.6698457757091365, 1.0543418060665983, 0.4422917412832065)</t>
+          <t>(0.9044149865270397, 1.0119516268605402, 0.40183159374326805)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7733BD990&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114CD540&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -724,31 +724,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>norm</t>
+          <t>loggamma</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1915143788905145</v>
+        <v>0.5763634457018202</v>
       </c>
       <c r="C8" t="n">
-        <v>1.109199039441495</v>
+        <v>-170.9775199453647</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5532149495711014</v>
+        <v>23.2858915677726</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(1620.4263801585503,)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(1.1091990394414948, 0.5532149495711014)</t>
+          <t>(1620.4263801585503, -170.9775199453647, 23.2858915677726)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F75244BBE0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114FAE60&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -763,31 +763,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>loggamma</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2073056825523169</v>
+        <v>0.585723453142409</v>
       </c>
       <c r="C9" t="n">
-        <v>-119.0819137131738</v>
+        <v>1.118386433317023</v>
       </c>
       <c r="D9" t="n">
-        <v>17.51550744490851</v>
+        <v>0.5809730828664216</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(955.609857268664,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(955.609857268664, -119.08191371317383, 17.515507444908508)</t>
+          <t>(1.1183864333170228, 0.5809730828664216)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7733BE860&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114F8FA0&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -806,27 +806,27 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.518272987816125</v>
+        <v>0.8149717424381115</v>
       </c>
       <c r="C10" t="n">
-        <v>-134217727.9199591</v>
+        <v>-67108863.67020125</v>
       </c>
       <c r="D10" t="n">
-        <v>134217728</v>
+        <v>67108864</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(130415070.0224321,)</t>
+          <t>(85100066.94902384,)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(130415070.0224321, -134217727.91995908, 134217727.99999999)</t>
+          <t>(85100066.94902384, -67108863.67020125, 67108864.0)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7733BF700&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114CD6C0&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.518273030466395</v>
+        <v>0.814971744341995</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08004091647761744</v>
+        <v>0.3297987540589098</v>
       </c>
       <c r="D11" t="n">
-        <v>1.029158122963877</v>
+        <v>0.788587679258113</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -860,12 +860,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(0.08004091647761744, 1.0291581229638773)</t>
+          <t>(0.32979875405890985, 0.788587679258113)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F752449CC0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114F8400&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -884,13 +884,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.064876141929305</v>
+        <v>1.581143238528814</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08004091647761744</v>
+        <v>0.3297987540589098</v>
       </c>
       <c r="D12" t="n">
-        <v>4.394766013753665</v>
+        <v>3.048060775472717</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -899,12 +899,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.08004091647761744, 4.394766013753665)</t>
+          <t>(0.32979875405890985, 3.0480607754727167)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7733BD3C0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114FA8F0&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -994,27 +994,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0438483497717443</v>
+        <v>0.3648462950800068</v>
       </c>
       <c r="C2" t="n">
-        <v>0.623423483781666</v>
+        <v>0.5877019476869287</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3171228418485463</v>
+        <v>0.3112472096102444</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(-0.28390454772390533,)</t>
+          <t>(-0.3387684943706759,)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(-0.28390454772390533, 0.623423483781666, 0.31712284184854633)</t>
+          <t>(-0.3387684943706759, 0.5877019476869287, 0.31124720961024444)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7731E1570&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114FA560&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1033,27 +1033,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05860839998488705</v>
+        <v>0.3722786021482105</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08254682184759977</v>
+        <v>0.1204585072936077</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6760586762391669</v>
+        <v>0.5967602455035411</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(0.6498126146266908,)</t>
+          <t>(0.7430846914143567,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(0.6498126146266908, 0.08254682184759977, 0.6760586762391669)</t>
+          <t>(0.7430846914143567, 0.12045850729360771, 0.5967602455035411)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7731E19C0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114FB7F0&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1068,31 +1068,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.225598446734211</v>
+        <v>0.4829834335682853</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1531753383353761</v>
+        <v>0.1944129250605515</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3942259635291858</v>
+        <v>3675819649.147841</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(1.9518059337548843,)</t>
+          <t>(1.43630660321592, 7385487044.556732)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(1.9518059337548843, 0.1531753383353761, 0.3942259635291858)</t>
+          <t>(1.43630660321592, 7385487044.556732, 0.19441292506055147, 3675819649.1478415)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7731E1750&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114F8D60&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1107,31 +1107,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2290042406537966</v>
+        <v>0.4916332773140435</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1534005210487468</v>
+        <v>0.1949625858267532</v>
       </c>
       <c r="D5" t="n">
-        <v>424729913365.5747</v>
+        <v>0.5084641440673172</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(1.9407242765676624, 1070063845600.03)</t>
+          <t>(1.412372296726097,)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(1.9407242765676624, 1070063845600.03, 0.1534005210487468, 424729913365.5747)</t>
+          <t>(1.412372296726097, 0.1949625858267532, 0.5084641440673172)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7731E1330&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114FACE0&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1150,27 +1150,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4953072660838951</v>
+        <v>0.720158547131852</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7417052690184319</v>
+        <v>0.7089721681649861</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3195841789180427</v>
+        <v>0.3072856142031056</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(2.2430369091978157,)</t>
+          <t>(2.0272684905367964,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(2.2430369091978157, 0.7417052690184319, 0.3195841789180427)</t>
+          <t>(2.0272684905367964, 0.7089721681649861, 0.30728561420310563)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F77372B370&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A115BA920&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1185,31 +1185,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dweibull</t>
+          <t>expon</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6188421411343378</v>
+        <v>0.7625537899416672</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7352520600656612</v>
+        <v>0.2008965400767967</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4020445954471981</v>
+        <v>0.7122264619019874</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(0.9425144060686637,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(0.9425144060686637, 0.7352520600656612, 0.40204459544719806)</t>
+          <t>(0.20089654007679672, 0.7122264619019874)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F773728BB0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114F9300&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1224,31 +1224,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>norm</t>
+          <t>pareto</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.175784218051491</v>
+        <v>0.7656959495015041</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9226388389685994</v>
+        <v>-175.7971412162958</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6432242005863406</v>
+        <v>175.9980377563726</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(248.11082783108503,)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(0.9226388389685994, 0.6432242005863406)</t>
+          <t>(248.11082783108503, -175.79714121629578, 175.99803775637255)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7737282E0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A115B8EE0&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1263,31 +1263,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>loggamma</t>
+          <t>dweibull</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.205111932385175</v>
+        <v>1.16310713891343</v>
       </c>
       <c r="C9" t="n">
-        <v>-185.9336320711271</v>
+        <v>0.7444063544984607</v>
       </c>
       <c r="D9" t="n">
-        <v>25.51963880580725</v>
+        <v>0.4120932668188428</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(1513.6655936406341,)</t>
+          <t>(0.9589359026940081,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(1513.6655936406341, -185.93363207112714, 25.519638805807247)</t>
+          <t>(0.9589359026940081, 0.7444063544984607, 0.41209326681884284)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7731E11B0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114F9F30&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1302,17 +1302,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>expon</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.321387172238194</v>
+        <v>1.318688869302321</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1612130296661445</v>
+        <v>0.913123001978784</v>
       </c>
       <c r="D10" t="n">
-        <v>0.761425809302455</v>
+        <v>0.7167872577636</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1321,12 +1321,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0.16121302966614448, 0.761425809302455)</t>
+          <t>(0.913123001978784, 0.7167872577636)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F773C02620&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A115B8A90&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1341,31 +1341,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pareto</t>
+          <t>loggamma</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.321387207964911</v>
+        <v>1.389124201187687</v>
       </c>
       <c r="C11" t="n">
-        <v>-33554431.83878697</v>
+        <v>-230.8823587202419</v>
       </c>
       <c r="D11" t="n">
-        <v>33554432</v>
+        <v>31.25414511270954</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(44067895.02738197,)</t>
+          <t>(1663.421348828425,)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(44067895.02738197, -33554431.83878697, 33554432.0)</t>
+          <t>(1663.421348828425, -230.88235872024188, 31.254145112709537)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F773C03C70&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114F9D20&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1384,13 +1384,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.655625062670093</v>
+        <v>2.791550522889087</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1612130296661445</v>
+        <v>0.2008965400767967</v>
       </c>
       <c r="D12" t="n">
-        <v>5.859120469154464</v>
+        <v>4.241702732229193</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1399,12 +1399,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.16121302966614448, 5.8591204691544645)</t>
+          <t>(0.20089654007679672, 4.241702732229193)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7731E28C0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114F9BD0&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1490,31 +1490,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03908147722949398</v>
+        <v>0.0426746722378785</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.03164320631926291</v>
+        <v>0.01612600726633334</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4231806474282988</v>
+        <v>10.92299061271657</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(2.411103762593318,)</t>
+          <t>(1.5140469160702703, 17.150848523547864)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(2.411103762593318, -0.03164320631926291, 0.4231806474282988)</t>
+          <t>(1.5140469160702703, 17.150848523547864, 0.01612600726633334, 10.922990612716566)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F75335AE90&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A116B6950&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1530,31 +1530,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03911369927420757</v>
+        <v>0.0441119562704043</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.03107184495942804</v>
+        <v>0.007428640935255807</v>
       </c>
       <c r="D3" t="n">
-        <v>16928.33110854668</v>
+        <v>0.5272462581676632</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(2.4089793486790674, 39986.737992643466)</t>
+          <t>(1.6970295044610306,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(2.4089793486790674, 39986.737992643466, -0.031071844959428038, 16928.331108546685)</t>
+          <t>(1.6970295044610306, 0.007428640935255807, 0.5272462581676632)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7533DDAB0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A116B6770&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1574,27 +1574,27 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04210831287786916</v>
+        <v>0.06154590863446913</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3374767222489109</v>
+        <v>-0.1855073539758477</v>
       </c>
       <c r="D4" t="n">
-        <v>1.184087400715832</v>
+        <v>0.9081062143307079</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(0.47725444946412915,)</t>
+          <t>(0.6112530809990129,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(0.47725444946412915, -0.3374767222489109, 1.1840874007158317)</t>
+          <t>(0.6112530809990129, -0.18550735397584775, 0.9081062143307079)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7533DDAE0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A116B7B20&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1614,27 +1614,27 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04584920975176684</v>
+        <v>0.07826402986366891</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6776022153834174</v>
+        <v>0.5644093460488053</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4578915614675245</v>
+        <v>0.4289245030047508</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(-0.09548434595503752,)</t>
+          <t>(-0.19135321370917813,)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(-0.09548434595503752, 0.6776022153834174, 0.4578915614675245)</t>
+          <t>(-0.19135321370917813, 0.5644093460488053, 0.4289245030047508)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F753359090&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A116B4910&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1654,27 +1654,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1099842895458127</v>
+        <v>0.1307119340669041</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8654808036220329</v>
+        <v>0.7822101510829933</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5085044210513578</v>
+        <v>0.5252868024610724</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(1.137167840851705,)</t>
+          <t>(1.1543243273473247,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(1.137167840851705, 0.865480803622033, 0.5085044210513578)</t>
+          <t>(1.1543243273473247, 0.7822101510829933, 0.5252868024610724)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F753307CD0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A116B5B40&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1694,27 +1694,27 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1385153000472998</v>
+        <v>0.1368991524523038</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8908109128049951</v>
+        <v>0.7824899234908915</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4823660169079524</v>
+        <v>0.4922172104425714</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(4.202377763730203,)</t>
+          <t>(3.9714552198423485,)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(4.202377763730203, 0.8908109128049951, 0.48236601690795244)</t>
+          <t>(3.9714552198423485, 0.7824899234908915, 0.4922172104425714)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F753306230&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A116B4520&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1730,17 +1730,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>norm</t>
+          <t>expon</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2145464689551781</v>
+        <v>0.1695661572487076</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9886894049090021</v>
+        <v>0.03093326988737141</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6665291488421173</v>
+        <v>0.8712468170545723</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1749,12 +1749,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(0.9886894049090021, 0.6665291488421173)</t>
+          <t>(0.030933269887371412, 0.8712468170545723)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F75335B9D0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A116B4790&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1770,31 +1770,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>loggamma</t>
+          <t>pareto</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2332328549694041</v>
+        <v>0.1695661615372655</v>
       </c>
       <c r="C9" t="n">
-        <v>-187.4604766880874</v>
+        <v>-134217727.9690667</v>
       </c>
       <c r="D9" t="n">
-        <v>25.99333693876501</v>
+        <v>134217728</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(1408.3974177435107,)</t>
+          <t>(154052476.50953728,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(1408.3974177435107, -187.4604766880874, 25.99333693876501)</t>
+          <t>(154052476.50953728, -134217727.96906672, 134217727.99999999)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7533DC190&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A11698A00&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1810,31 +1810,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pareto</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6479329227817725</v>
+        <v>0.2156258393990642</v>
       </c>
       <c r="C10" t="n">
-        <v>-134217727.9717424</v>
+        <v>0.9021800869419437</v>
       </c>
       <c r="D10" t="n">
-        <v>134217728</v>
+        <v>0.6718587282742549</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(139747270.86329314,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(139747270.86329314, -134217727.97174244, 134217727.99999999)</t>
+          <t>(0.9021800869419437, 0.6718587282742549)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F753304820&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A116B5F30&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1850,31 +1850,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>expon</t>
+          <t>loggamma</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6479329248647681</v>
+        <v>0.2252681775420927</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02825756035962738</v>
+        <v>-209.4800449748686</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9604318445493748</v>
+        <v>28.35903837876677</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(1667.1433301911393,)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(0.02825756035962738, 0.9604318445493748)</t>
+          <t>(1667.1433301911393, -209.48004497486863, 28.35903837876677)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F75335B730&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A1169B4C0&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1894,13 +1894,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.546542392961304</v>
+        <v>0.8023259713160815</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02825756035962738</v>
+        <v>0.03093326988737141</v>
       </c>
       <c r="D12" t="n">
-        <v>4.546156133957278</v>
+        <v>3.595916041012031</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1909,12 +1909,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.02825756035962738, 4.546156133957278)</t>
+          <t>(0.030933269887371412, 3.5959160410120306)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7533DCCD0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A116B48B0&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">

--- a/Imag/gumbel_hougaard/resultados.xlsx
+++ b/Imag/gumbel_hougaard/resultados.xlsx
@@ -490,31 +490,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1599191691354807</v>
+        <v>0.02394130631123571</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8425704734821873</v>
+        <v>0.2948820313155643</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3721762221083804</v>
+        <v>1.038371009043201</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(-0.14582922886341526,)</t>
+          <t>(0.48315591098902283,)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(-0.14582922886341526, 0.8425704734821873, 0.3721762221083804)</t>
+          <t>(0.48315591098902283, 0.29488203131556434, 1.0383710090432008)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114FA290&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F213021000&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -529,31 +529,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1804599200787505</v>
+        <v>0.02511940505207503</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08468835159475883</v>
+        <v>1.17901987546446</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8997261695945882</v>
+        <v>0.400119699716064</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(0.5270086035521369,)</t>
+          <t>(-0.11830987799594658,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(0.5270086035521369, 0.08468835159475883, 0.8997261695945882)</t>
+          <t>(-0.11830987799594658, 1.1790198754644599, 0.400119699716064)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114F8EB0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001F970&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -568,31 +568,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2262977062897753</v>
+        <v>0.04958878477000491</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2859893923070637</v>
+        <v>0.4493359491335159</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3822932531403936</v>
+        <v>8995.66751659667</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(2.1773745499618973,)</t>
+          <t>(3.206951187614931, 28494.49978842894)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(2.1773745499618973, 0.2859893923070637, 0.38229325314039364)</t>
+          <t>(3.206951187614931, 28494.49978842894, 0.44933594913351593, 8995.66751659667)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114FA6B0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001E650&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -607,31 +607,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2308733992431038</v>
+        <v>0.04972803747817684</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2889888370146915</v>
+        <v>0.4482376640662489</v>
       </c>
       <c r="D5" t="n">
-        <v>7275748.288956531</v>
+        <v>0.3153141598932077</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(2.133196203648171, 18668907.494049393)</t>
+          <t>(3.2134539139953953,)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(2.133196203648171, 18668907.494049393, 0.2889888370146915, 7275748.288956531)</t>
+          <t>(3.2134539139953953, 0.4482376640662489, 0.31531415989320766)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114F9090&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001DDE0&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -646,31 +646,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>dweibull</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2425449068133839</v>
+        <v>0.2556066908970825</v>
       </c>
       <c r="C6" t="n">
-        <v>0.99266102117218</v>
+        <v>1.348200435535205</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3675544045586184</v>
+        <v>0.4485245400308033</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(2.495010186607715,)</t>
+          <t>(1.0996540500608902,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(2.495010186607715, 0.99266102117218, 0.36755440455861843)</t>
+          <t>(1.0996540500608902, 1.3482004355352053, 0.4485245400308033)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114F8CA0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001CD00&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -685,31 +685,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dweibull</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2735035254604248</v>
+        <v>0.2579183236247404</v>
       </c>
       <c r="C7" t="n">
-        <v>1.01195162686054</v>
+        <v>1.357308725260693</v>
       </c>
       <c r="D7" t="n">
-        <v>0.401831593743268</v>
+        <v>0.4256002571200204</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(0.9044149865270397,)</t>
+          <t>(3.8335388149014458,)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(0.9044149865270397, 1.0119516268605402, 0.40183159374326805)</t>
+          <t>(3.8335388149014458, 1.3573087252606935, 0.4256002571200204)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114CD540&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001C160&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -724,31 +724,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>loggamma</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5763634457018202</v>
+        <v>0.5438257258401239</v>
       </c>
       <c r="C8" t="n">
-        <v>-170.9775199453647</v>
+        <v>1.46148903648549</v>
       </c>
       <c r="D8" t="n">
-        <v>23.2858915677726</v>
+        <v>0.5917459279234986</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(1620.4263801585503,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(1620.4263801585503, -170.9775199453647, 23.2858915677726)</t>
+          <t>(1.4614890364854902, 0.5917459279234986)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114FAE60&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20003BCA0&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -763,31 +763,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>norm</t>
+          <t>loggamma</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.585723453142409</v>
+        <v>0.5665447322297077</v>
       </c>
       <c r="C9" t="n">
-        <v>1.118386433317023</v>
+        <v>-282.7821981336988</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5809730828664216</v>
+        <v>35.03164864844017</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(3341.104207755269,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(1.1183864333170228, 0.5809730828664216)</t>
+          <t>(3341.104207755269, -282.7821981336988, 35.03164864844017)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114F8FA0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F213021480&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -802,31 +802,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pareto</t>
+          <t>expon</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8149717424381115</v>
+        <v>1.873593683936984</v>
       </c>
       <c r="C10" t="n">
-        <v>-67108863.67020125</v>
+        <v>0.4679187523472357</v>
       </c>
       <c r="D10" t="n">
-        <v>67108864</v>
+        <v>0.9935702841382545</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(85100066.94902384,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(85100066.94902384, -67108863.67020125, 67108864.0)</t>
+          <t>(0.4679187523472357, 0.9935702841382545)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114CD6C0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001F4C0&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -841,31 +841,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>expon</t>
+          <t>pareto</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.814971744341995</v>
+        <v>1.873593700873502</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3297987540589098</v>
+        <v>-134217727.5320812</v>
       </c>
       <c r="D11" t="n">
-        <v>0.788587679258113</v>
+        <v>134217728</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(135086295.37981355,)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(0.32979875405890985, 0.788587679258113)</t>
+          <t>(135086295.37981355, -134217727.53208125, 134217727.99999999)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114F8400&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001DA50&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -884,13 +884,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.581143238528814</v>
+        <v>2.839904867270872</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3297987540589098</v>
+        <v>0.4679187523472357</v>
       </c>
       <c r="D12" t="n">
-        <v>3.048060775472717</v>
+        <v>4.464161509649578</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -899,12 +899,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.32979875405890985, 3.0480607754727167)</t>
+          <t>(0.4679187523472357, 4.464161509649578)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114FA8F0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001C2E0&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -990,31 +990,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3648462950800068</v>
+        <v>0.07404648853557484</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5877019476869287</v>
+        <v>0.4325552614251989</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3112472096102444</v>
+        <v>0.1988080787087503</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(-0.3387684943706759,)</t>
+          <t>(4.859979271895979,)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(-0.3387684943706759, 0.5877019476869287, 0.31124720961024444)</t>
+          <t>(4.859979271895979, 0.4325552614251989, 0.1988080787087503)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114FA560&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20003BBE0&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1029,31 +1029,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3722786021482105</v>
+        <v>0.07407788011025501</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1204585072936077</v>
+        <v>0.4322031689188386</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5967602455035411</v>
+        <v>29773.16640257227</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(0.7430846914143567,)</t>
+          <t>(4.8653443511708225, 149868.3384096249)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(0.7430846914143567, 0.12045850729360771, 0.5967602455035411)</t>
+          <t>(4.8653443511708225, 149868.3384096249, 0.4322031689188386, 29773.16640257227)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114FB7F0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F200038280&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1068,31 +1068,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4829834335682853</v>
+        <v>0.08154012324414711</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1944129250605515</v>
+        <v>0.1079354960802153</v>
       </c>
       <c r="D4" t="n">
-        <v>3675819649.147841</v>
+        <v>1.220982087946777</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(1.43630660321592, 7385487044.556732)</t>
+          <t>(0.3344242613748499,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(1.43630660321592, 7385487044.556732, 0.19441292506055147, 3675819649.1478415)</t>
+          <t>(0.3344242613748499, 0.1079354960802153, 1.2209820879467765)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114F8D60&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26607D8A0&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1107,31 +1107,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4916332773140435</v>
+        <v>0.08952337958931493</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1949625858267532</v>
+        <v>1.200840338133297</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5084641440673172</v>
+        <v>0.3517215086326368</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(1.412372296726097,)</t>
+          <t>(0.017809116209682868,)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(1.412372296726097, 0.1949625858267532, 0.5084641440673172)</t>
+          <t>(0.017809116209682868, 1.2008403381332968, 0.35172150863263685)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114FACE0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F212F09CC0&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1150,27 +1150,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.720158547131852</v>
+        <v>0.3253984459425687</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7089721681649861</v>
+        <v>1.371640481534387</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3072856142031056</v>
+        <v>0.3911831403380294</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(2.0272684905367964,)</t>
+          <t>(9.90532073789359,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(2.0272684905367964, 0.7089721681649861, 0.30728561420310563)</t>
+          <t>(9.90532073789359, 1.3716404815343872, 0.39118314033802937)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A115BA920&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F200039F60&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1185,17 +1185,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>expon</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7625537899416672</v>
+        <v>0.3658837350960875</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2008965400767967</v>
+        <v>1.398757358938902</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7122264619019874</v>
+        <v>0.4383759484420413</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1204,12 +1204,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(0.20089654007679672, 0.7122264619019874)</t>
+          <t>(1.3987573589389022, 0.4383759484420413)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114F9300&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2130D6890&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1224,31 +1224,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pareto</t>
+          <t>loggamma</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7656959495015041</v>
+        <v>0.3868288461728634</v>
       </c>
       <c r="C8" t="n">
-        <v>-175.7971412162958</v>
+        <v>-155.3488173584655</v>
       </c>
       <c r="D8" t="n">
-        <v>175.9980377563726</v>
+        <v>20.46325655125043</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(248.11082783108503,)</t>
+          <t>(2122.434237551851,)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(248.11082783108503, -175.79714121629578, 175.99803775637255)</t>
+          <t>(2122.434237551851, -155.3488173584655, 20.46325655125043)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A115B8EE0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20003A890&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1267,27 +1267,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.16310713891343</v>
+        <v>0.4358728189446247</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7444063544984607</v>
+        <v>1.398072927806783</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4120932668188428</v>
+        <v>0.3736267933987028</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(0.9589359026940081,)</t>
+          <t>(1.2874940916564057,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(0.9589359026940081, 0.7444063544984607, 0.41209326681884284)</t>
+          <t>(1.2874940916564057, 1.3980729278067834, 0.37362679339870275)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114F9F30&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2660E3A30&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1302,17 +1302,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>norm</t>
+          <t>expon</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.318688869302321</v>
+        <v>3.031103859853828</v>
       </c>
       <c r="C10" t="n">
-        <v>0.913123001978784</v>
+        <v>0.5138061039672399</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7167872577636</v>
+        <v>0.8849512549716623</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1321,12 +1321,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0.913123001978784, 0.7167872577636)</t>
+          <t>(0.5138061039672399, 0.8849512549716623)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A115B8A90&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F212F44E20&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1341,31 +1341,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>loggamma</t>
+          <t>pareto</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.389124201187687</v>
+        <v>3.031103873045959</v>
       </c>
       <c r="C11" t="n">
-        <v>-230.8823587202419</v>
+        <v>-67108863.4861939</v>
       </c>
       <c r="D11" t="n">
-        <v>31.25414511270954</v>
+        <v>67108863.99999999</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(1663.421348828425,)</t>
+          <t>(75833402.37339279,)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(1663.421348828425, -230.88235872024188, 31.254145112709537)</t>
+          <t>(75833402.37339279, -67108863.486193895, 67108863.99999999)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114F9D20&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26607F550&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1384,13 +1384,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.791550522889087</v>
+        <v>3.212168084834368</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2008965400767967</v>
+        <v>0.5138061039672399</v>
       </c>
       <c r="D12" t="n">
-        <v>4.241702732229193</v>
+        <v>2.918173433397848</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1399,12 +1399,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.20089654007679672, 4.241702732229193)</t>
+          <t>(0.5138061039672399, 2.918173433397848)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114F9BD0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F212F09210&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1490,31 +1490,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0426746722378785</v>
+        <v>0.171823641150613</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01612600726633334</v>
+        <v>0.9477013980772453</v>
       </c>
       <c r="D2" t="n">
-        <v>10.92299061271657</v>
+        <v>0.2317833927249672</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(1.5140469160702703, 17.150848523547864)</t>
+          <t>(-0.008345847228020413,)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(1.5140469160702703, 17.150848523547864, 0.01612600726633334, 10.922990612716566)</t>
+          <t>(-0.008345847228020413, 0.9477013980772453, 0.23178339272496717)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A116B6950&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F265F731C0&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1530,31 +1530,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0441119562704043</v>
+        <v>0.1954344397609174</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007428640935255807</v>
+        <v>0.2373516799126137</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5272462581676632</v>
+        <v>0.7976428438562344</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(1.6970295044610306,)</t>
+          <t>(0.34223111325123806,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(1.6970295044610306, 0.007428640935255807, 0.5272462581676632)</t>
+          <t>(0.34223111325123806, 0.23735167991261374, 0.7976428438562344)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A116B6770&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F212F5C9A0&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1570,31 +1570,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06154590863446913</v>
+        <v>0.2602692068820733</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1855073539758477</v>
+        <v>0.4213687152696619</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9081062143307079</v>
+        <v>0.1302710583640765</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(0.6112530809990129,)</t>
+          <t>(5.081388911783919,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(0.6112530809990129, -0.18550735397584775, 0.9081062143307079)</t>
+          <t>(5.081388911783919, 0.4213687152696619, 0.1302710583640765)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A116B7B20&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2132A0040&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1610,31 +1610,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07826402986366891</v>
+        <v>0.2732514884837361</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5644093460488053</v>
+        <v>0.4337250545298217</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4289245030047508</v>
+        <v>638175.1636497751</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(-0.19135321370917813,)</t>
+          <t>(4.769630385406543, 4675987.43740011)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(-0.19135321370917813, 0.5644093460488053, 0.4289245030047508)</t>
+          <t>(4.769630385406543, 4675987.43740011, 0.4337250545298217, 638175.1636497751)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A116B4910&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F213097C40&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1654,27 +1654,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1307119340669041</v>
+        <v>0.7387829142221745</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7822101510829933</v>
+        <v>1.043631196685036</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5252868024610724</v>
+        <v>0.2393250302438173</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(1.1543243273473247,)</t>
+          <t>(1.1701112215564167,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(1.1543243273473247, 0.7822101510829933, 0.5252868024610724)</t>
+          <t>(1.1701112215564167, 1.0436311966850365, 0.2393250302438173)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A116B5B40&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F212F98A60&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1694,27 +1694,27 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1368991524523038</v>
+        <v>0.7916922450111148</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7824899234908915</v>
+        <v>1.049552927932563</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4922172104425714</v>
+        <v>0.2397521567427722</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(3.9714552198423485,)</t>
+          <t>(5.429329724161377,)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(3.9714552198423485, 0.7824899234908915, 0.4922172104425714)</t>
+          <t>(5.429329724161377, 1.0495529279325633, 0.23975215674277223)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A116B4520&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F213094130&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1730,17 +1730,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>expon</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1695661572487076</v>
+        <v>1.232975478815026</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03093326988737141</v>
+        <v>1.083326315341482</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8712468170545723</v>
+        <v>0.3013027442533639</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1749,12 +1749,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(0.030933269887371412, 0.8712468170545723)</t>
+          <t>(1.0833263153414816, 0.3013027442533639)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A116B4790&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F21301AB60&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1770,31 +1770,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>pareto</t>
+          <t>loggamma</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1695661615372655</v>
+        <v>1.315266483911635</v>
       </c>
       <c r="C9" t="n">
-        <v>-134217727.9690667</v>
+        <v>-91.46798324334287</v>
       </c>
       <c r="D9" t="n">
-        <v>134217728</v>
+        <v>12.47484227723646</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(154052476.50953728,)</t>
+          <t>(1668.1733454939713,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(154052476.50953728, -134217727.96906672, 134217727.99999999)</t>
+          <t>(1668.1733454939713, -91.46798324334287, 12.474842277236462)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A11698A00&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2130948E0&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1810,17 +1810,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>norm</t>
+          <t>expon</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2156258393990642</v>
+        <v>8.036285013596746</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9021800869419437</v>
+        <v>0.4778059357554908</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6718587282742549</v>
+        <v>0.6055203795859908</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1829,12 +1829,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0.9021800869419437, 0.6718587282742549)</t>
+          <t>(0.4778059357554908, 0.6055203795859908)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A116B5F30&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F212F9AAA0&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1850,31 +1850,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>loggamma</t>
+          <t>pareto</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2252681775420927</v>
+        <v>8.036285092104455</v>
       </c>
       <c r="C11" t="n">
-        <v>-209.4800449748686</v>
+        <v>-67108863.52219407</v>
       </c>
       <c r="D11" t="n">
-        <v>28.35903837876677</v>
+        <v>67108864</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(1667.1433301911393,)</t>
+          <t>(110828415.54055934,)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(1667.1433301911393, -209.48004497486863, 28.35903837876677)</t>
+          <t>(110828415.54055934, -67108863.522194065, 67108864.0)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A1169B4C0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F213019F30&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1894,13 +1894,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8023259713160815</v>
+        <v>9.581705273292952</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03093326988737141</v>
+        <v>0.4778059357554908</v>
       </c>
       <c r="D12" t="n">
-        <v>3.595916041012031</v>
+        <v>2.400489633805173</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1909,12 +1909,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.030933269887371412, 3.5959160410120306)</t>
+          <t>(0.4778059357554908, 2.400489633805173)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A116B48B0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F213094490&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">

--- a/Imag/gumbel_hougaard/resultados.xlsx
+++ b/Imag/gumbel_hougaard/resultados.xlsx
@@ -7,9 +7,18 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="weak" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="moderate" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="strong" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="50_weak" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="50_moderate" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="50_strong" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="100_weak" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="100_moderate" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="100_strong" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="500_weak" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="500_moderate" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="500_strong" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="1000_weak" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="1000_moderate" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="1000_strong" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -494,27 +503,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02394130631123571</v>
+        <v>0.02421532963177777</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2948820313155643</v>
+        <v>0.1615199852354916</v>
       </c>
       <c r="D2" t="n">
-        <v>1.038371009043201</v>
+        <v>1.030628898140899</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(0.48315591098902283,)</t>
+          <t>(0.48268150406606747,)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(0.48315591098902283, 0.29488203131556434, 1.0383710090432008)</t>
+          <t>(0.48268150406606747, 0.1615199852354916, 1.0306288981408993)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F213021000&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9973640&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -533,27 +542,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02511940505207503</v>
+        <v>0.03254191629769951</v>
       </c>
       <c r="C3" t="n">
-        <v>1.17901987546446</v>
+        <v>1.039348847313972</v>
       </c>
       <c r="D3" t="n">
-        <v>0.400119699716064</v>
+        <v>0.3971386283813011</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(-0.11830987799594658,)</t>
+          <t>(-0.11651373495571632,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(-0.11830987799594658, 1.1790198754644599, 0.400119699716064)</t>
+          <t>(-0.11651373495571632, 1.0393488473139723, 0.3971386283813011)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001F970&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9971C60&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -568,31 +577,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04958878477000491</v>
+        <v>0.04193745607983077</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4493359491335159</v>
+        <v>0.346469055229106</v>
       </c>
       <c r="D4" t="n">
-        <v>8995.66751659667</v>
+        <v>0.3275916301492456</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(3.206951187614931, 28494.49978842894)</t>
+          <t>(2.96819008720821,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(3.206951187614931, 28494.49978842894, 0.44933594913351593, 8995.66751659667)</t>
+          <t>(2.96819008720821, 0.346469055229106, 0.32759163014924564)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001E650&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9972F80&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -607,31 +616,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04972803747817684</v>
+        <v>0.04254507768812042</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4482376640662489</v>
+        <v>0.3482525286868629</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3153141598932077</v>
+        <v>933724.3089184412</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(3.2134539139953953,)</t>
+          <t>(2.93737316533424, 2822991.895462995)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(3.2134539139953953, 0.4482376640662489, 0.31531415989320766)</t>
+          <t>(2.93737316533424, 2822991.895462995, 0.34825252868686285, 933724.3089184412)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001DDE0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9973A30&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -646,31 +655,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>dweibull</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2556066908970825</v>
+        <v>0.2769569628534857</v>
       </c>
       <c r="C6" t="n">
-        <v>1.348200435535205</v>
+        <v>1.220439702457162</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4485245400308033</v>
+        <v>0.4310929934093262</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(1.0996540500608902,)</t>
+          <t>(4.103057242198646,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(1.0996540500608902, 1.3482004355352053, 0.4485245400308033)</t>
+          <t>(4.103057242198646, 1.2204397024571616, 0.4310929934093262)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001CD00&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9973F10&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -685,31 +694,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>dweibull</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2579183236247404</v>
+        <v>0.2965338006351071</v>
       </c>
       <c r="C7" t="n">
-        <v>1.357308725260693</v>
+        <v>1.220993350465383</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4256002571200204</v>
+        <v>0.4483085370616677</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(3.8335388149014458,)</t>
+          <t>(1.1160639330761328,)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(3.8335388149014458, 1.3573087252606935, 0.4256002571200204)</t>
+          <t>(1.1160639330761328, 1.2209933504653827, 0.4483085370616677)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001C160&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9971D80&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -728,13 +737,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5438257258401239</v>
+        <v>0.5204623493530984</v>
       </c>
       <c r="C8" t="n">
-        <v>1.46148903648549</v>
+        <v>1.31884021286426</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5917459279234986</v>
+        <v>0.5828591177429601</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -743,12 +752,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(1.4614890364854902, 0.5917459279234986)</t>
+          <t>(1.3188402128642602, 0.5828591177429601)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20003BCA0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9971A80&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -767,27 +776,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5665447322297077</v>
+        <v>0.5444242969522413</v>
       </c>
       <c r="C9" t="n">
-        <v>-282.7821981336988</v>
+        <v>-236.1382024505967</v>
       </c>
       <c r="D9" t="n">
-        <v>35.03164864844017</v>
+        <v>30.34403350827785</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(3341.104207755269,)</t>
+          <t>(2503.9137774180545,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(3341.104207755269, -282.7821981336988, 35.03164864844017)</t>
+          <t>(2503.9137774180545, -236.13820245059668, 30.344033508277853)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F213021480&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9973E50&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -802,31 +811,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>expon</t>
+          <t>pareto</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.873593683936984</v>
+        <v>1.636189318419422</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4679187523472357</v>
+        <v>-134217727.6216302</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9935702841382545</v>
+        <v>134217728</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(142713399.5826011,)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0.4679187523472357, 0.9935702841382545)</t>
+          <t>(142713399.5826011, -134217727.62163019, 134217728.0)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001F4C0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F99730D0&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -841,31 +850,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pareto</t>
+          <t>expon</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.873593700873502</v>
+        <v>1.636189331468041</v>
       </c>
       <c r="C11" t="n">
-        <v>-134217727.5320812</v>
+        <v>0.3783698143519457</v>
       </c>
       <c r="D11" t="n">
-        <v>134217728</v>
+        <v>0.9404703985123145</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(135086295.37981355,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(135086295.37981355, -134217727.53208125, 134217727.99999999)</t>
+          <t>(0.3783698143519457, 0.9404703985123145)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001DA50&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9972110&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -884,13 +893,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.839904867270872</v>
+        <v>2.72947691415702</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4679187523472357</v>
+        <v>0.3783698143519457</v>
       </c>
       <c r="D12" t="n">
-        <v>4.464161509649578</v>
+        <v>4.302129017069769</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -899,17 +908,1528 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.4679187523472357, 4.464161509649578)</t>
+          <t>(0.3783698143519457, 4.3021290170697695)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001C2E0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9972050&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04433908228950483</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2522847653226959</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.053497888592159</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(0.4828747130175489,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(0.4828747130175489, 0.2522847653226959, 1.0534978885921586)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E58A31F0&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.05396175568957905</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4154857634160003</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3209560050700998</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(3.1761059123564426,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(3.1761059123564426, 0.4154857634160003, 0.3209560050700998)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E58A1DE0&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.05950273327089515</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.150502141032741</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4079130563021469</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(-0.11132721247368066,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(-0.11132721247368066, 1.1505021410327405, 0.4079130563021469)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E58A1990&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1809447265566957</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.002492283818150687</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.46774109616602</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(5.781082038753004, 36.21652200818165)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(5.781082038753004, 36.21652200818165, -0.0024922838181506875, 10.46774109616602)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E58A0F10&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3089142452879448</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.349541389038219</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.459286218421231</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(4.879709460225882,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(4.879709460225882, 1.3495413890382193, 0.45928621842123096)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E58A2290&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3339698304386067</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.359849147112724</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.46873447712573</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(1.1708364040611383,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(1.1708364040611383, 1.3598491471127236, 0.46873447712573)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E58A11E0&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4782163331219537</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.434869770896163</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5918184129918114</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.4348697708961633, 0.5918184129918114)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF75A1A0&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5007286654139416</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-208.0760944626096</v>
+      </c>
+      <c r="D9" t="n">
+        <v>27.49132843566055</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(2041.1574485395931,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(2041.1574485395931, -208.0760944626096, 27.49132843566055)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E58A0BB0&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.664198017486367</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-134217727.5645842</v>
+      </c>
+      <c r="D10" t="n">
+        <v>134217728</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>(134291052.0981826,)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(134291052.0981826, -134217727.56458423, 134217727.99999999)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E58A2FE0&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.664198037550321</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4354157708693076</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9994540000268557</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(0.43541577086930755, 0.9994540000268557)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E58A0E50&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.603530230844935</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4354157708693076</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4.546063800021742</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.43541577086930755, 4.546063800021742)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E58A23E0&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.05568275319985026</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4999902962752923</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.201187880096539</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(4.379793133947823,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(4.379793133947823, 0.4999902962752923, 0.201187880096539)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E3D14AF0&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.05579929641915998</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5018429831345439</v>
+      </c>
+      <c r="D3" t="n">
+        <v>319082.0402311737</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(4.35038196167879, 1578293.2258895878)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(4.35038196167879, 1578293.2258895878, 0.5018429831345439, 319082.04023117374)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E3D14E50&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.06189499792645962</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.204636681449591</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.106327722520062</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(0.3514602293181403,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(0.3514602293181403, 0.204636681449591, 1.106327722520062)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E52B7370&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.06868045323861233</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.18920235089832</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3320172406145041</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(0.000714825393258703,)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(0.000714825393258703, 1.18920235089832, 0.3320172406145041)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E52B6BC0&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2926205307942276</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.346815933949115</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3615724720442554</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(7.525745666947787,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(7.525745666947787, 1.3468159339491148, 0.36157247204425536)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E3D158D0&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.318911074233223</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.368693783903251</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3539174665058289</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(1.2665237708376342,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(1.2665237708376342, 1.3686937839032511, 0.3539174665058289)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E3D17880&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3947245546820843</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.381150475383095</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4228018128691065</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.3811504753830945, 0.4228018128691065)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E3D141C0&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4029554537626066</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-166.3405731150056</v>
+      </c>
+      <c r="D9" t="n">
+        <v>21.41442931646034</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(2520.6905891163624,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(2520.6905891163624, -166.3405731150056, 21.414429316460343)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E3D14B20&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.200196823348105</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5694575439492708</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8116929314338237</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(0.5694575439492708, 0.8116929314338237)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E3D15630&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.200196828041839</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-67108863.43054245</v>
+      </c>
+      <c r="D11" t="n">
+        <v>67108863.99999999</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(82677650.74680212,)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(82677650.74680212, -67108863.430542454, 67108863.99999999)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E3D16E30&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4.288373341059006</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5694575439492708</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.436138263009669</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.5694575439492708, 3.4361382630096693)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E3D15C60&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1466184805145692</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9484161763082848</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.23894584614569</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(0.03809341399754207,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(0.03809341399754207, 0.9484161763082848, 0.23894584614569003)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA24EA10&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.157612331321201</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1147527021486219</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9214675846247735</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(0.29744781439314205,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(0.29744781439314205, 0.11475270214862195, 0.9214675846247735)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA24E350&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1901568385835836</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3648399726143453</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1183739197413342</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(6.023588508961612,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(6.023588508961612, 0.3648399726143453, 0.11837391974133424)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA24C7F0&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1915467664329331</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3679430863998513</v>
+      </c>
+      <c r="D5" t="n">
+        <v>229100.051539438</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(5.952325179376712, 1920512.166842008)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(5.952325179376712, 1920512.166842008, 0.36794308639985135, 229100.05153943802)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA24EE00&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4726993421786969</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.040398248594719</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2340957233059343</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(1.1491187445728148,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(1.1491187445728148, 1.0403982485947194, 0.2340957233059343)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA24E710&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5323509439474012</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.054952194990036</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2504515305480557</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(7.337624448689448,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(7.337624448689448, 1.0549521949900365, 0.2504515305480557)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA24F820&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8573276973458067</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.077876460672084</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2924222098702557</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.0778764606720843, 0.29242220987025574)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E5AE78B0&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8823876614418649</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-79.95032832289451</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.15223753170559</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(1430.5522548859403,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(1430.5522548859403, -79.9503283228945, 11.152237531705588)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9F48AC0&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7.974584216456496</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4563632032583295</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.958601349701815</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(0.4563632032583295, 1.958601349701815)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA24E3E0&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8.048565795245814</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4563632032583295</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6215132574137547</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(0.4563632032583295, 0.6215132574137547)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E5AE7D00&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8.048565803895317</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-67108863.54363677</v>
+      </c>
+      <c r="D12" t="n">
+        <v>67108863.99999997</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>(107976561.0045209,)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(107976561.0045209, -67108863.54363677, 67108863.99999997)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E5AE75E0&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
           <t>#999999</t>
@@ -990,31 +2510,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07404648853557484</v>
+        <v>0.07224130194664945</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4325552614251989</v>
+        <v>0.07599501470514732</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1988080787087503</v>
+        <v>0.9242043661779723</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(4.859979271895979,)</t>
+          <t>(0.41149001042993916,)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(4.859979271895979, 0.4325552614251989, 0.1988080787087503)</t>
+          <t>(0.41149001042993916, 0.07599501470514732, 0.9242043661779723)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20003BBE0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9A4F700&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1029,31 +2549,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07407788011025501</v>
+        <v>0.08644340752289238</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4322031689188386</v>
+        <v>0.2680954663360542</v>
       </c>
       <c r="D3" t="n">
-        <v>29773.16640257227</v>
+        <v>0.2163953604982826</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(4.8653443511708225, 149868.3384096249)</t>
+          <t>(3.760541838631698,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(4.8653443511708225, 149868.3384096249, 0.4322031689188386, 29773.16640257227)</t>
+          <t>(3.760541838631698, 0.26809546633605424, 0.21639536049828265)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F200038280&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9A4F010&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1068,31 +2588,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08154012324414711</v>
+        <v>0.08680939748171147</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1079354960802153</v>
+        <v>0.8813984973192157</v>
       </c>
       <c r="D4" t="n">
-        <v>1.220982087946777</v>
+        <v>0.3135979158098737</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(0.3344242613748499,)</t>
+          <t>(-0.05871311128914318,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(0.3344242613748499, 0.1079354960802153, 1.2209820879467765)</t>
+          <t>(-0.05871311128914318, 0.8813984973192157, 0.31359791580987373)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26607D8A0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9A4ED70&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1107,31 +2627,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08952337958931493</v>
+        <v>0.3290355403905048</v>
       </c>
       <c r="C5" t="n">
-        <v>1.200840338133297</v>
+        <v>-0.04806389071145799</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3517215086326368</v>
+        <v>4.636917207292607</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(0.017809116209682868,)</t>
+          <t>(5.068564988990134, 15.672536497775015)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(0.017809116209682868, 1.2008403381332968, 0.35172150863263685)</t>
+          <t>(5.068564988990134, 15.672536497775015, -0.048063890711457995, 4.636917207292607)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F212F09CC0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9A4EE90&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1146,31 +2666,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>dweibull</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3253984459425687</v>
+        <v>0.4822425807586913</v>
       </c>
       <c r="C6" t="n">
-        <v>1.371640481534387</v>
+        <v>1.041812080552591</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3911831403380294</v>
+        <v>0.3495811787656374</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(9.90532073789359,)</t>
+          <t>(1.2222074272554928,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(9.90532073789359, 1.3716404815343872, 0.39118314033802937)</t>
+          <t>(1.2222074272554928, 1.0418120805525906, 0.3495811787656374)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F200039F60&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9A4F610&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1185,31 +2705,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>norm</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3658837350960875</v>
+        <v>0.4997959343293065</v>
       </c>
       <c r="C7" t="n">
-        <v>1.398757358938902</v>
+        <v>1.028308196427254</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4383759484420413</v>
+        <v>0.3396158845240279</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(5.251826275243523,)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(1.3987573589389022, 0.4383759484420413)</t>
+          <t>(5.251826275243523, 1.028308196427254, 0.3396158845240279)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2130D6890&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9A4EA10&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1224,31 +2744,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>loggamma</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3868288461728634</v>
+        <v>0.6497886833907724</v>
       </c>
       <c r="C8" t="n">
-        <v>-155.3488173584655</v>
+        <v>1.081860162397418</v>
       </c>
       <c r="D8" t="n">
-        <v>20.46325655125043</v>
+        <v>0.4313317503994507</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(2122.434237551851,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(2122.434237551851, -155.3488173584655, 20.46325655125043)</t>
+          <t>(1.0818601623974178, 0.4313317503994507)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20003A890&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9A4E290&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1263,31 +2783,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dweibull</t>
+          <t>loggamma</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4358728189446247</v>
+        <v>0.6810802877428787</v>
       </c>
       <c r="C9" t="n">
-        <v>1.398072927806783</v>
+        <v>-158.1910857394217</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3736267933987028</v>
+        <v>20.75134606656476</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(1.2874940916564057,)</t>
+          <t>(2154.797101032176,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(1.2874940916564057, 1.3980729278067834, 0.37362679339870275)</t>
+          <t>(2154.797101032176, -158.19108573942174, 20.751346066564757)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2660E3A30&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9A4F3A0&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1302,31 +2822,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>expon</t>
+          <t>pareto</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.031103859853828</v>
+        <v>3.083022792744752</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5138061039672399</v>
+        <v>-134217727.6822557</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8849512549716623</v>
+        <v>134217728</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(175651027.39953208,)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0.5138061039672399, 0.8849512549716623)</t>
+          <t>(175651027.39953208, -134217727.68225566, 134217727.99999999)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F212F44E20&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9A4F8E0&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1341,31 +2861,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pareto</t>
+          <t>expon</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.031103873045959</v>
+        <v>3.083022824820418</v>
       </c>
       <c r="C11" t="n">
-        <v>-67108863.4861939</v>
+        <v>0.3177443410121482</v>
       </c>
       <c r="D11" t="n">
-        <v>67108863.99999999</v>
+        <v>0.7641158213852696</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(75833402.37339279,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(75833402.37339279, -67108863.486193895, 67108863.99999999)</t>
+          <t>(0.3177443410121482, 0.7641158213852696)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26607F550&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9A4E920&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1384,13 +2904,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.212168084834368</v>
+        <v>4.019014256936027</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5138061039672399</v>
+        <v>0.3177443410121482</v>
       </c>
       <c r="D12" t="n">
-        <v>2.918173433397848</v>
+        <v>2.9052555814554</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1399,12 +2919,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.5138061039672399, 2.918173433397848)</t>
+          <t>(0.3177443410121482, 2.9052555814554)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F212F09210&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9A4FE20&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1494,33 +3014,32 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.171823641150613</v>
+        <v>0.07606067867686664</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9477013980772453</v>
+        <v>0.767264402884935</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2317833927249672</v>
+        <v>0.3432469408200987</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(-0.008345847228020413,)</t>
+          <t>(-0.08313524302652352,)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(-0.008345847228020413, 0.9477013980772453, 0.23178339272496717)</t>
+          <t>(-0.08313524302652352, 0.767264402884935, 0.3432469408200987)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F265F731C0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F984E230&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
           <t>#e41a1c</t>
@@ -1534,33 +3053,32 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1954344397609174</v>
+        <v>0.08329638239856205</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2373516799126137</v>
+        <v>-0.05401594248044919</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7976428438562344</v>
+        <v>0.9508250236475939</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(0.34223111325123806,)</t>
+          <t>(0.4431849974346073,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(0.34223111325123806, 0.23735167991261374, 0.7976428438562344)</t>
+          <t>(0.4431849974346073, -0.05401594248044919, 0.9508250236475939)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F212F5C9A0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F984E920&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
           <t>#e41a1c</t>
@@ -1574,33 +3092,32 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2602692068820733</v>
+        <v>0.1110125876364458</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4213687152696619</v>
+        <v>0.1684008112341999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1302710583640765</v>
+        <v>0.2763835274203922</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(5.081388911783919,)</t>
+          <t>(2.9933207749897592,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(5.081388911783919, 0.4213687152696619, 0.1302710583640765)</t>
+          <t>(2.9933207749897592, 0.1684008112341999, 0.2763835274203922)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2132A0040&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F984E3B0&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>#377eb8</t>
@@ -1614,33 +3131,32 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2732514884837361</v>
+        <v>0.1329086039195794</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4337250545298217</v>
+        <v>0.1819845173659693</v>
       </c>
       <c r="D5" t="n">
-        <v>638175.1636497751</v>
+        <v>22995479932.7651</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(4.769630385406543, 4675987.43740011)</t>
+          <t>(2.7736895146051825, 77914301600.47827)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(4.769630385406543, 4675987.43740011, 0.4337250545298217, 638175.1636497751)</t>
+          <t>(2.7736895146051825, 77914301600.47827, 0.18198451736596927, 22995479932.7651)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F213097C40&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F984C940&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
           <t>#4daf4a</t>
@@ -1654,33 +3170,32 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7387829142221745</v>
+        <v>0.2621917723540815</v>
       </c>
       <c r="C6" t="n">
-        <v>1.043631196685036</v>
+        <v>0.9243068311350356</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2393250302438173</v>
+        <v>0.3736016895577815</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(1.1701112215564167,)</t>
+          <t>(1.123889113633365,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(1.1701112215564167, 1.0436311966850365, 0.2393250302438173)</t>
+          <t>(1.123889113633365, 0.9243068311350356, 0.3736016895577815)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F212F98A60&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F984DF30&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>#984ea3</t>
@@ -1694,33 +3209,32 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7916922450111148</v>
+        <v>0.2831858058297429</v>
       </c>
       <c r="C7" t="n">
-        <v>1.049552927932563</v>
+        <v>0.91989858421796</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2397521567427722</v>
+        <v>0.350315162816932</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(5.429329724161377,)</t>
+          <t>(3.9725178766012346,)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(5.429329724161377, 1.0495529279325633, 0.23975215674277223)</t>
+          <t>(3.9725178766012346, 0.91989858421796, 0.350315162816932)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F213094130&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F984E0E0&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
           <t>#ff7f00</t>
@@ -1734,13 +3248,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.232975478815026</v>
+        <v>0.594431911033439</v>
       </c>
       <c r="C8" t="n">
-        <v>1.083326315341482</v>
+        <v>0.99570508215777</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3013027442533639</v>
+        <v>0.5009902354303529</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1749,18 +3263,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(1.0833263153414816, 0.3013027442533639)</t>
+          <t>(0.99570508215777, 0.5009902354303529)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F21301AB60&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E5AF0310&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
           <t>#ffff33</t>
@@ -1774,33 +3287,32 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.315266483911635</v>
+        <v>0.6091005144562083</v>
       </c>
       <c r="C9" t="n">
-        <v>-91.46798324334287</v>
+        <v>-156.7066994045676</v>
       </c>
       <c r="D9" t="n">
-        <v>12.47484227723646</v>
+        <v>21.15598670056592</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(1668.1733454939713,)</t>
+          <t>(1727.2783592186279,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(1668.1733454939713, -91.46798324334287, 12.474842277236462)</t>
+          <t>(1727.2783592186279, -156.70669940456764, 21.15598670056592)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2130948E0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F984E3E0&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
           <t>#a65628</t>
@@ -1814,13 +3326,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.036285013596746</v>
+        <v>2.343080043882116</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4778059357554908</v>
+        <v>0.2186762902456216</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6055203795859908</v>
+        <v>0.7770287919121484</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1829,18 +3341,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0.4778059357554908, 0.6055203795859908)</t>
+          <t>(0.2186762902456216, 0.7770287919121484)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F212F9AAA0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F984D2D0&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
           <t>#f781bf</t>
@@ -1854,33 +3365,532 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.036285092104455</v>
+        <v>2.343080064797597</v>
       </c>
       <c r="C11" t="n">
-        <v>-67108863.52219407</v>
+        <v>-67108863.78132371</v>
+      </c>
+      <c r="D11" t="n">
+        <v>67108863.99999999</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(86365994.88502161,)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(86365994.88502161, -67108863.78132371, 67108863.99999999)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F984DDB0&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4.296193586589228</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2186762902456216</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4.023820125443812</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.2186762902456216, 4.023820125443812)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F984EFE0&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0222506206521285</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.360874016092946</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.310402227573299</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(3.236945422352716,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(3.236945422352716, 0.360874016092946, 0.310402227573299)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9BA8460&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.02278846088658565</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3641201877333202</v>
+      </c>
+      <c r="D3" t="n">
+        <v>169983486708.7495</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(3.1783750366897596, 538554752814.52734)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(3.1783750366897596, 538554752814.52734, 0.3641201877333202, 169983486708.7495)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF6A4FD0&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.03203259482641642</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1333287825538179</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.115536027481983</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(0.4466222704303681,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(0.4466222704303681, 0.13332878255381794, 1.1155360274819826)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF6A7BB0&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0436627619042491</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.096371049555122</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4067557048802848</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(-0.08004700307560747,)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(-0.08004700307560747, 1.0963710495551215, 0.4067557048802848)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9C3C3A0&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.218465821773037</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.290659007802691</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4517300486569093</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(1.1692002684484737,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(1.1692002684484737, 1.2906590078026912, 0.4517300486569093)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9C3C520&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2246218274573869</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.302354066723261</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4885177074922078</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(6.249911186062507,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(6.249911186062507, 1.302354066723261, 0.4885177074922078)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9BA8A60&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3533378773058811</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.365625798457101</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5785348055884747</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.3656257984571007, 0.5785348055884747)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F99718D0&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3910098669176672</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-142.1364341865367</v>
+      </c>
+      <c r="D9" t="n">
+        <v>20.39341469972916</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(1138.1879879836497,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(1138.1879879836497, -142.13643418653675, 20.393414699729156)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF6A6BF0&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.696607083724009</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3911040949856283</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9745217034714725</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(0.39110409498562826, 0.9745217034714725)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9C3C4C0&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.696607121645259</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-67108863.60889591</v>
       </c>
       <c r="D11" t="n">
         <v>67108864</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(110828415.54055934,)</t>
+          <t>(68863386.4073723,)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(110828415.54055934, -67108863.522194065, 67108864.0)</t>
+          <t>(68863386.4073723, -67108863.608895905, 67108864.0)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F213019F30&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9972860&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
           <t>#999999</t>
@@ -1894,13 +3904,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.581705273292952</v>
+        <v>2.887566313951278</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4778059357554908</v>
+        <v>0.3911040949856283</v>
       </c>
       <c r="D12" t="n">
-        <v>2.400489633805173</v>
+        <v>5.198380833070372</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1909,18 +3919,2517 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.4778059357554908, 2.400489633805173)</t>
+          <t>(0.39110409498562826, 5.198380833070372)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F213094490&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9BA9390&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.06093577245331214</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9610482183906897</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3040478640629532</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(-0.019789723446605373,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(-0.019789723446605373, 0.9610482183906897, 0.3040478640629532)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E39A8E50&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.07534798445011136</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.05524856637179779</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.021133156859769</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(0.3532301299105253,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(0.3532301299105253, 0.05524856637179779, 1.021133156859769)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E3D29090&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1236382498907626</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2704198049360512</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1734113501326088</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(5.029145415700633,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(5.029145415700633, 0.27041980493605117, 0.17341135013260878)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E3D28400&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2719195338623956</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0003381368704823131</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.16260193030751</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(7.668681833261887, 47.055561490814284)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(7.668681833261887, 47.055561490814284, 0.00033813687048231313, 8.16260193030751)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E3D29570&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4211553966699546</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.073294373507867</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3096325475559617</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(1.1103706795921773,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(1.1103706795921773, 1.0732943735078666, 0.3096325475559617)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E3D71DB0&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4508855462969642</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.092614309537456</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3111363753290175</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(4.902096186056058,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(4.902096186056058, 1.0926143095374559, 0.3111363753290175)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E3D2B610&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7498647323642279</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.14253029804037</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4015687286809174</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.1425302980403698, 0.4015687286809174)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E3D28760&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8207844062348434</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-112.8116162948349</v>
+      </c>
+      <c r="D9" t="n">
+        <v>15.72322090629883</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(1404.9725825875194,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(1404.9725825875194, -112.81161629483489, 15.723220906298835)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E3D2A1D0&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.656674710476999</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3321391883474477</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8103911096929221</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(0.3321391883474477, 0.810391109692922)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E3D72770&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.656674756145241</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-67108863.66786081</v>
+      </c>
+      <c r="D11" t="n">
+        <v>67108864</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(82810464.66235548,)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(82810464.66235548, -67108863.66786081, 67108864.0)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E39AAA40&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5.620000477446996</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3321391883474477</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.328540303711274</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.3321391883474477, 3.328540303711274)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E3D2BAC0&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.05058308963478274</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7930015769417227</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.302555710425342</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(-0.04567939647474613,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(-0.04567939647474613, 0.7930015769417227, 0.30255571042534196)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9E0D360&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.05474951849810537</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.001048285894360319</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9069709986335551</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(0.4007904782258536,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(0.4007904782258536, -0.001048285894360319, 0.9069709986335551)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9E0D060&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0734415971962875</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2298592772105555</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2166673219583522</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(3.470652268872813,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(3.470652268872813, 0.22985927721055555, 0.2166673219583522)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9E0C250&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.09317664602342439</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1019956402619072</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.22315066567753</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(4.6452650853734685, 43.95472012443646)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(4.6452650853734685, 43.95472012443646, 0.10199564026190724, 9.22315066567753)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9E0D600&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3205582837693489</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.931087020506008</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.319828056850111</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(5.1056715634198095,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(5.1056715634198095, 0.931087020506008, 0.319828056850111)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9E0D270&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3581674161502241</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9293012456170224</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3186805956663314</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(1.1343255262145484,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(1.1343255262145484, 0.9293012456170224, 0.31868059566633145)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9E0CBB0&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6032177783386525</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9818345001628258</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4128146943912866</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(0.9818345001628258, 0.4128146943912866)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9E0DFF0&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.6612667802978764</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-133.783871559945</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18.0430198610317</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(1753.5650528577498,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(1753.5650528577498, -133.78387155994503, 18.0430198610317)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9E0CD90&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.043786774320671</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2944870911740101</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6873474089888157</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(0.29448709117401006, 0.6873474089888157)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9E0D780&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.043786809289576</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-67108863.70551291</v>
+      </c>
+      <c r="D11" t="n">
+        <v>67108864</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(97634563.52018277,)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(97634563.52018277, -67108863.70551291, 67108864.0)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9E0D030&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5.726017914586888</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2944870911740101</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.970264114393423</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.29448709117401006, 3.970264114393423)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9E0DDB0&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.05356617455365906</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2870655994611329</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.021005239251916</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(0.48852243567475,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(0.48852243567475, 0.2870655994611329, 1.0210052392519158)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9E9D090&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.06347925024655288</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.156013831382229</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3988504436275478</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(-0.11572917027177965,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(-0.11572917027177965, 1.1560138313822295, 0.39885044362754785)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9E57400&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.08218562036594948</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4563083829818183</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.324155137512001</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(3.0225077717203037,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(3.0225077717203037, 0.4563083829818183, 0.32415513751200103)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9E9C220&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1476670806132328</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2810969582268166</v>
+      </c>
+      <c r="D5" t="n">
+        <v>195512576520.2223</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(5.074381899321269, 871942302522.4935)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(5.074381899321269, 871942302522.4935, 0.2810969582268166, 195512576520.22232)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9E57850&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4186684880198468</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.353875753230281</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.45659997212514</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(5.101511289680341,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(5.101511289680341, 1.3538757532302805, 0.45659997212514003)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9E57A00&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4485481076117471</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.392337093785305</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.475765136735714</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(1.2453054941897412,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(1.2453054941897412, 1.392337093785305, 0.475765136735714)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9E57A30&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5552823001137007</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.436065227113268</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5789173146457184</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.4360652271132677, 0.5789173146457184)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9E56F80&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5573534153044615</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-161.5212202297379</v>
+      </c>
+      <c r="D9" t="n">
+        <v>22.35073177562492</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(1467.0200758174833,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(1467.0200758174833, -161.52122022973788, 22.350731775624922)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9E57760&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.629946759323088</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4761258428183869</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9599393842948808</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(0.4761258428183869, 0.9599393842948808)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9E577F0&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.6299467654089</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-67108863.52387416</v>
+      </c>
+      <c r="D11" t="n">
+        <v>67108863.99999999</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(69909481.61596124,)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(69909481.61596124, -67108863.523874156, 67108863.99999999)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9E575E0&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.403063280829786</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4761258428183869</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.860871217291125</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.4761258428183869, 3.8608712172911255)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9E57640&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.08927670656197877</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3878033214825551</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1845467825391839</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(4.9032831806371515,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(4.9032831806371515, 0.38780332148255514, 0.18454678253918394)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E5895ED0&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.09337240859069366</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.430298441532269</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.056688139346873</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(3.867895864650505, 27.780267516393387)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(3.867895864650505, 27.780267516393387, 0.43029844153226904, 7.056688139346873)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E58949A0&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.09708643651461304</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.06926992350689973</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.159460619831832</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(0.3289489987472185,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(0.3289489987472185, 0.06926992350689973, 1.1594606198318318)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E58710C0&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1110139319154709</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.109724675525604</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3298200466951505</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(0.028884647426577578,)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(0.028884647426577578, 1.1097246755256038, 0.3298200466951505)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E4F03730&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3238630575679325</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.253734198953843</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3508234381290121</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(1.3155322649268273,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(1.3155322649268273, 1.2537341989538429, 0.35082343812901207)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E3D011B0&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4439848625419463</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.27648503104424</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3898159285236054</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(22.954488346757813,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(22.954488346757813, 1.2764850310442402, 0.38981592852360536)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E5897AF0&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4868759836794209</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.292689632804912</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4056406196709385</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.292689632804912, 0.4056406196709385)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E58951E0&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4931971516430387</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-122.0368072698776</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16.62229996846505</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(1668.4924052026795,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(1668.4924052026795, -122.03680726987764, 16.62229996846505)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E2384A30&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.240581735538929</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4862459210573922</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8064437117475198</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(0.48624592105739217, 0.8064437117475198)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E23D49A0&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.240581743059526</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-67108863.51375408</v>
+      </c>
+      <c r="D11" t="n">
+        <v>67108863.99999999</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(83215807.47127001,)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(83215807.47127001, -67108863.51375408, 67108863.99999999)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E5894B80&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3.34647380549807</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4862459210573922</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.545635225689407</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.48624592105739217, 2.5456352256894066)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E23D5090&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.05618029175282598</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2409838792731833</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.118336492809052</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(6.769951600255503,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(6.769951600255503, 0.2409838792731833, 0.11833649280905198)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA24EC50&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.05618056545821707</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2409774997083484</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13347807.63446009</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(6.770092750296965, 112796928.79455033)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(6.770092750296965, 112796928.79455033, 0.24097749970834842, 13347807.634460093)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA24F9A0&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0675564560518551</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.07431553350551386</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.07594410500161</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(0.2720476470863135,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(0.2720476470863135, -0.07431553350551386, 1.07594410500161)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA24F2E0&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.07373415003960024</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9070790457605394</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2586715778854648</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(0.05927763723206214,)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(0.05927763723206214, 0.9070790457605394, 0.2586715778854648)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA24FEB0&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3701345392374655</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.026529783372501</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2769830254634635</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(10.542852907785011,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(10.542852907785011, 1.0265297833725013, 0.2769830254634635)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA24F790&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4284438243155734</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.042115326061517</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3082331949784556</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(1.0421153260615172, 0.30823319497845564)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA24DC00&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4455863026849833</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.024759754329987</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2562217824201385</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>(1.2250249970113285,)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.2250249970113285, 1.024759754329987, 0.2562217824201385)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA24E740&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4534897992807276</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-95.65523358582459</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13.0171207873049</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(1683.5740345956283,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(1683.5740345956283, -95.65523358582459, 13.017120787304897)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA24DFC0&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6.273285891623917</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-134217727.6022728</v>
+      </c>
+      <c r="D10" t="n">
+        <v>134217728</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>(208287083.5986695,)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(208287083.5986695, -134217727.60227282, 134217727.99999999)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA24E140&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6.273285956717224</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3977271719912243</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6443881540702929</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(0.39772717199122426, 0.6443881540702929)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA24E110&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6.813609322073092</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3977271719912243</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.219843108426494</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.39772717199122426, 2.2198431084264945)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA24EF80&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>#999999</t>
